--- a/scrapping/data/SBS/tasas_final/tasas_final_10.01.2023.xlsx
+++ b/scrapping/data/SBS/tasas_final/tasas_final_10.01.2023.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -548,32 +548,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.97</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -608,21 +608,21 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -633,7 +633,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -643,22 +643,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>8.710000000000001</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="4">
@@ -728,7 +728,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -738,22 +738,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -803,16 +803,16 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>8.289999999999999</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -893,21 +893,21 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="6">
@@ -918,7 +918,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -928,32 +928,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>7.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12.72</t>
+          <t>10.43</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -988,21 +988,21 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>8.5</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="7">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1023,22 +1023,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1088,16 +1088,16 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>7.48</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="8">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1183,16 +1183,16 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>7.93</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="9">
@@ -1203,42 +1203,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23.30</t>
+          <t>15.25</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>11.87</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1268,26 +1268,26 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>9.91</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1298,32 +1298,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>11.10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>51.11</t>
+          <t>23.59</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>10.41</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1393,32 +1393,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11.56</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12.31</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>10.86</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="12">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1498,32 +1498,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.04</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1563,16 +1563,16 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>10.05</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="13">
@@ -1583,42 +1583,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10.23</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10.56</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1653,21 +1653,21 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>9.41</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="14">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1688,32 +1688,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1723,46 +1723,46 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
           <t>9.05</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>s.i.</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
       <c r="S14" t="n">
-        <v>8.970000000000001</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1783,22 +1783,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>9.56</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1868,52 +1868,52 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15.32</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10.26</t>
+          <t>12.26</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>13.90</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>12.06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20.54</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>11.93</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>13.52</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="17">
@@ -1963,32 +1963,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15.78</t>
+          <t>13.99</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12.22</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>13.39</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>13.28</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="18">
@@ -2058,42 +2058,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12.09</t>
+          <t>13.97</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>13.28</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="19">
@@ -2153,32 +2153,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14.96</t>
+          <t>14.93</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2188,17 +2188,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12.13</t>
+          <t>10.87</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>29.31</t>
+          <t>21.65</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>13.29</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="20">
@@ -2248,52 +2248,52 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14.18</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11.91</t>
+          <t>12.12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>12.74</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>25.23</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>11.10</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>11.3</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="21">
@@ -2343,32 +2343,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15.07</t>
+          <t>14.32</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>11.32</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10.12</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11.91</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>23.73</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>13.15</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="22">
@@ -2438,32 +2438,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16.38</t>
+          <t>16.28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10.18</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13.66</t>
+          <t>13.08</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2473,12 +2473,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>18.46</t>
+          <t>17.41</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>15.64</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="23">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19.89</t>
+          <t>16.42</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2543,22 +2543,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21.12</t>
+          <t>21.58</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15.76</t>
+          <t>19.17</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15.97</t>
+          <t>15.39</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2568,12 +2568,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>14.89</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>27.68</t>
+          <t>28.37</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>14.52</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>23.33</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="24">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22.32</t>
+          <t>20.51</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17.59</t>
+          <t>17.32</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>22.85</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>13.67</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>23.18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>14.27</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>43.91</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>20.16</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="26">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>21.82</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13.67</t>
+          <t>13.32</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>14.52</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12.91</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2853,12 +2853,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>48.30</t>
+          <t>36.42</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>24.58</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="27">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20.81</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13.54</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>14.35</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>40.50</t>
+          <t>45.46</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>30.98</v>
+        <v>34.34</v>
       </c>
     </row>
     <row r="28">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>21.35</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>13.34</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3028,12 +3028,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13.34</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3043,12 +3043,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>36.12</t>
+          <t>37.52</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>34.02</v>
+        <v>35.89</v>
       </c>
     </row>
     <row r="29">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>15.39</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3113,22 +3113,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16.14</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>21.35</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>24.75</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>14.52</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>21.89</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="30">
@@ -3198,32 +3198,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>25.59</t>
+          <t>22.65</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>28.29</t>
+          <t>28.39</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>25.82</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3233,12 +3233,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>27.08</t>
+          <t>15.20</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>45.94</t>
+          <t>50.50</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>38.9</v>
+        <v>43.29</v>
       </c>
     </row>
     <row r="31">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>33.77</t>
+          <t>34.53</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>34.30</t>
+          <t>40.29</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>25.82</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>33.91</v>
+        <v>36.27</v>
       </c>
     </row>
     <row r="32">
@@ -3393,12 +3393,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21.26</t>
+          <t>20.18</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>25.27</t>
+          <t>23.33</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12.09</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>21.05</v>
+        <v>20.19</v>
       </c>
     </row>
     <row r="33">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>21.21</t>
+          <t>20.11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3518,12 +3518,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>50.36</t>
+          <t>54.68</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>50.01</v>
+        <v>54.51</v>
       </c>
     </row>
     <row r="34">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>58.99</t>
+          <t>62.91</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>11.41</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="35">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>17.46</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3708,12 +3708,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>72.31</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>71.80</t>
+          <t>68.69</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>31.95</v>
+        <v>30.46</v>
       </c>
     </row>
     <row r="36">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>21.20</t>
+          <t>24.10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>54.49</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>71.57</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>56.63</v>
+        <v>50.21</v>
       </c>
     </row>
     <row r="37">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22.12</t>
+          <t>22.95</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22.50</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>73.92</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>56.46</t>
+          <t>61.73</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>55.85</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="38">
@@ -3958,17 +3958,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>21.59</t>
+          <t>16.86</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>28.58</t>
+          <t>30.10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3978,12 +3978,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>11.49</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>33.78</t>
+          <t>36.41</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>27.83</v>
+        <v>31.31</v>
       </c>
     </row>
     <row r="39">
@@ -4053,32 +4053,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>43.84</t>
+          <t>43.76</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15.42</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>58.05</t>
+          <t>57.55</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>34.84</t>
+          <t>33.76</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>35.67</t>
+          <t>32.76</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>40.75</t>
+          <t>41.38</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4088,22 +4088,22 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>65.54</t>
+          <t>63.38</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>61.12</t>
+          <t>61.09</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>29.11</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>84.27</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4113,12 +4113,12 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>83.80</t>
+          <t>83.04</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>60.80</t>
+          <t>71.15</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>57.35</v>
+        <v>56.12</v>
       </c>
     </row>
     <row r="40">
@@ -4148,32 +4148,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>54.78</t>
+          <t>56.98</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>27.62</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>65.97</t>
+          <t>68.90</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>35.95</t>
+          <t>35.04</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>58.68</t>
+          <t>57.26</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>46.99</t>
+          <t>47.98</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>70.49</t>
+          <t>70.09</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4193,12 +4193,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>32.13</t>
+          <t>31.41</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>92.00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>66.17</v>
+        <v>67.14</v>
       </c>
     </row>
     <row r="41">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12.65</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>60.15</t>
+          <t>62.39</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>14.36</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="42">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.55</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>14.81</t>
+          <t>13.94</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>13.39</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="43">
@@ -4433,32 +4433,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>17.49</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>22.86</t>
+          <t>40.94</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>74.03</t>
+          <t>72.04</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>16.16</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12.74</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4468,12 +4468,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>56.45</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>71.82</t>
+          <t>72.46</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>34.65</t>
+          <t>38.48</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>33.23</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -4517,7 +4517,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>55.57</v>
+        <v>57.32</v>
       </c>
     </row>
     <row r="44">
@@ -4528,34 +4528,34 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>18.96</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>15.23</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20.72</t>
+          <t>19.16</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>20.57</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>19.02</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>19.59</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>-</t>
@@ -4563,22 +4563,22 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>20.05</t>
+          <t>19.77</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>51.62</t>
+          <t>49.28</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>33.17</t>
+          <t>34.91</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -4588,12 +4588,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>30.98</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>60.80</t>
+          <t>71.15</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>23.13</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="45">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>50.46</t>
+          <t>55.94</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>50.46</v>
+        <v>55.94</v>
       </c>
     </row>
     <row r="46">
@@ -4718,32 +4718,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4753,17 +4753,17 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>19.09</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>9.07</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="47">
@@ -4813,32 +4813,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4848,17 +4848,17 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>19.09</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>s.i.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>9.07</v>
+        <v>8.81</v>
       </c>
     </row>
   </sheetData>
